--- a/medicine/Enfance/Jonathan_Cott/Jonathan_Cott.xlsx
+++ b/medicine/Enfance/Jonathan_Cott/Jonathan_Cott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonathan Cott, né le 24 décembre 1942 à New York, est un écrivain, journaliste et éditeur américain spécialisé dans la musique, aussi bien classique que rock. Il a notamment collaboré au magazine Rolling Stone depuis sa création ainsi qu'au New York Times,au New Yorker et d'autres publications[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonathan Cott, né le 24 décembre 1942 à New York, est un écrivain, journaliste et éditeur américain spécialisé dans la musique, aussi bien classique que rock. Il a notamment collaboré au magazine Rolling Stone depuis sa création ainsi qu'au New York Times,au New Yorker et d'autres publications.
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Cott est le fils d'un producteur de télévision, Ted Cott, et de Jean Cahan. Il passe son enfance à New York où il obtient un BA de l'université de Columbia en 1964. Puis il complète sa formation à l'université de Californie à Berkeley où il obtient un MA en 1966[2]. Il passe la fin des années 1960 à Londres, où il noue une longue amitié avec John Lennon et Yoko Ono. Cott fut le dernier journaliste à interviewer Lennon, trois jours avant sa mort[3].
-Le journaliste musical
-En 1970, il devient rédacteur à la revue Rolling Stone, où il se spécialise dans les interviews, dont beaucoup ont ensuite été rassemblées dans son livre Listening de 2020. L'écrivain Jan Morris le qualifie d'« intervieweur incomparable », et Studs Terkel aurait déclaré que Jonathan Cott, « comme intervieweur, révèle les vérités des esprits créatifs »[4]. Ayant écrit de nombreux articles sur Bob Dylan, Cott  lui consacre finalement  deux livres. Dans le New York Times, Janet Maslin estime qu'il est sans doute « l'écrivain le plus sympathique ayant jamais conversé avec M. Dylan »[5].
-Littérature enfantine
-En plus de la musique rock, Cott se consacre à la littérature enfantine. Il dirige la collection de 1985 Beyond the Looking Glass : Extraordinary Works of Fairy Tale and Fantasy et signe le livre de 1983 Pipers at the Gates of Dawn : The Wisdom of Children's Literature . Il collabore avec Maurice Sendak sur une collection de livres d'images victoriens et rédige une biographie de Sendak, There's a Mystery There: The Primal Vision of Maurice Sendak (2019)[6].
-Maladie
-Souffrant depuis des années de trouble bipolaire, la mort de sa mère en 1988 provoque période dépressive, qui le conduit à suivre deux ans de thérapie par électrochocs (ECT). Après 36 traitements, il ne se garde aucun souvenir de la préiode comprise entre 1985 à 2000. Il passera les années suivantes de sa vie à reconstituer ses souvenirs, une quête qu'il relate dans son livre de 2005 On the Sea of Memory: A Journey From Forgetting to Remembering (Sur la mer de la mémoire : un voyage de l'oubli au souvenir). Questionné lors d'une interview sur le site Salon.com s'il était choqué par tout ce qu'il avait réappris, Cott a répondu : « Eh bien, j'étais ravi d'apprendre la fin de l'apartheid. J'étais vraiment bouleversé, mais plus à un niveau personnel, quand j'ai appris que Glenn Gould avait est mort, ou que John Lennon était mort, ou que Bob Marley était mort – des gens que je chérissais, des poètes que j'avais admirés. J'ai découvert qu'ils étaient morts en même temps. Ils sont tous morts en même temps[7].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cott est le fils d'un producteur de télévision, Ted Cott, et de Jean Cahan. Il passe son enfance à New York où il obtient un BA de l'université de Columbia en 1964. Puis il complète sa formation à l'université de Californie à Berkeley où il obtient un MA en 1966. Il passe la fin des années 1960 à Londres, où il noue une longue amitié avec John Lennon et Yoko Ono. Cott fut le dernier journaliste à interviewer Lennon, trois jours avant sa mort.
 </t>
         </is>
       </c>
@@ -546,10 +557,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le journaliste musical</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1970, il devient rédacteur à la revue Rolling Stone, où il se spécialise dans les interviews, dont beaucoup ont ensuite été rassemblées dans son livre Listening de 2020. L'écrivain Jan Morris le qualifie d'« intervieweur incomparable », et Studs Terkel aurait déclaré que Jonathan Cott, « comme intervieweur, révèle les vérités des esprits créatifs ». Ayant écrit de nombreux articles sur Bob Dylan, Cott  lui consacre finalement  deux livres. Dans le New York Times, Janet Maslin estime qu'il est sans doute « l'écrivain le plus sympathique ayant jamais conversé avec M. Dylan ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jonathan_Cott</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonathan_Cott</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature enfantine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de la musique rock, Cott se consacre à la littérature enfantine. Il dirige la collection de 1985 Beyond the Looking Glass : Extraordinary Works of Fairy Tale and Fantasy et signe le livre de 1983 Pipers at the Gates of Dawn : The Wisdom of Children's Literature . Il collabore avec Maurice Sendak sur une collection de livres d'images victoriens et rédige une biographie de Sendak, There's a Mystery There: The Primal Vision of Maurice Sendak (2019).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jonathan_Cott</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonathan_Cott</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maladie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souffrant depuis des années de trouble bipolaire, la mort de sa mère en 1988 provoque période dépressive, qui le conduit à suivre deux ans de thérapie par électrochocs (ECT). Après 36 traitements, il ne se garde aucun souvenir de la préiode comprise entre 1985 à 2000. Il passera les années suivantes de sa vie à reconstituer ses souvenirs, une quête qu'il relate dans son livre de 2005 On the Sea of Memory: A Journey From Forgetting to Remembering (Sur la mer de la mémoire : un voyage de l'oubli au souvenir). Questionné lors d'une interview sur le site Salon.com s'il était choqué par tout ce qu'il avait réappris, Cott a répondu : « Eh bien, j'étais ravi d'apprendre la fin de l'apartheid. J'étais vraiment bouleversé, mais plus à un niveau personnel, quand j'ai appris que Glenn Gould avait est mort, ou que John Lennon était mort, ou que Bob Marley était mort – des gens que je chérissais, des poètes que j'avais admirés. J'ai découvert qu'ils étaient morts en même temps. Ils sont tous morts en même temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jonathan_Cott</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonathan_Cott</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Comme auteur:
 He Dreams What Is Going On Inside His Head (1973)
